--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -1,35 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DaiHoc\Lesson\Semester 231\Database\assignment1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89A318-75AB-428A-9428-291E1AEFFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{375ED079-7EF4-4E40-BDF9-E079A69A3EF0}"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -39,6 +19,18 @@
     <t>Employee</t>
   </si>
   <si>
+    <t>Emp_ID</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>DoB</t>
+  </si>
+  <si>
     <t> gender</t>
   </si>
   <si>
@@ -54,39 +46,141 @@
     <t>degree year</t>
   </si>
   <si>
-    <t>Emp_ID</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>DoB</t>
+    <t>Dno</t>
+  </si>
+  <si>
+    <t>Dr_Flag</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>abc1</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>xyz1</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>mnp1</t>
+  </si>
+  <si>
+    <t>Urology</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>abc2</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>xyz2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mnp2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>abc3</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>xyz3</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>mnp3</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>abc4</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Emp_phone</t>
+  </si>
+  <si>
+    <t>Dr_ID</t>
+  </si>
+  <si>
+    <t>Nurse_ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
   <si>
     <t>Department</t>
   </si>
   <si>
+    <t>dnumber</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Nurse_ID</t>
-  </si>
-  <si>
-    <t>Dr_ID</t>
+    <t>Dean_ID</t>
   </si>
   <si>
     <t>Patient</t>
   </si>
   <si>
+    <t>Incharge</t>
+  </si>
+  <si>
+    <t>IP_ID</t>
+  </si>
+  <si>
     <t>P_Fname</t>
   </si>
   <si>
@@ -99,391 +193,426 @@
     <t>phone_number</t>
   </si>
   <si>
+    <t>IP_Phone</t>
+  </si>
+  <si>
+    <t>Record_id</t>
+  </si>
+  <si>
+    <t>period_number</t>
+  </si>
+  <si>
+    <t>OP_Flag</t>
+  </si>
+  <si>
+    <t>OP_ID</t>
+  </si>
+  <si>
+    <t>IP_Flag</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Treatment_history</t>
+  </si>
+  <si>
+    <t>Admission_History</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>OP_phone</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>adms_date</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>discharge_date</t>
+  </si>
+  <si>
+    <t>sickroom</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>10-5-2023</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>10-7-2023</t>
+  </si>
+  <si>
+    <t>10-8-2023</t>
+  </si>
+  <si>
+    <t>Examination</t>
+  </si>
+  <si>
+    <t>Đột xuất bận-&gt; next day k trùng được</t>
+  </si>
+  <si>
+    <t>Phí khám thôi</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>exam_date</t>
+  </si>
+  <si>
+    <t>next_exam</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>15/5/2023</t>
+  </si>
+  <si>
+    <t>30-5-2023</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>16/5/2023</t>
+  </si>
+  <si>
+    <t>20/6/2023</t>
+  </si>
+  <si>
+    <t>10-6-2023</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>20-8-2023</t>
+  </si>
+  <si>
+    <t>Exam_Med</t>
+  </si>
+  <si>
+    <t>Treat_Med</t>
+  </si>
+  <si>
+    <t>Med_ID</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Import_info</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>expr_date</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>sell_price</t>
+  </si>
+  <si>
+    <t>Prov_ID</t>
+  </si>
+  <si>
+    <t>imported_date</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>20/11/2023</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>20/9/2023</t>
+  </si>
+  <si>
+    <t>20/9/2024</t>
+  </si>
+  <si>
     <t>Provider</t>
   </si>
   <si>
-    <t>Prov_ID</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>Provided</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>Med_ID</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>imported_date</t>
-  </si>
-  <si>
-    <t>OP_ID</t>
-  </si>
-  <si>
-    <t>IP_ID</t>
-  </si>
-  <si>
-    <t>Treatment_history</t>
-  </si>
-  <si>
-    <t>Examination</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t>fee</t>
-  </si>
-  <si>
-    <t>sickroom</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>Dean_ID</t>
-  </si>
-  <si>
-    <t>Provided</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Exam_Med</t>
-  </si>
-  <si>
-    <t>Treat_Med</t>
-  </si>
-  <si>
-    <t>Emp_phone</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Le</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Neurology</t>
-  </si>
-  <si>
-    <t>Cardiology</t>
-  </si>
-  <si>
-    <t>Urology</t>
-  </si>
-  <si>
-    <t>Psychiatry</t>
-  </si>
-  <si>
-    <t>Tran</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>abc1</t>
-  </si>
-  <si>
-    <t>xyz1</t>
-  </si>
-  <si>
-    <t>mnp1</t>
-  </si>
-  <si>
-    <t>abc2</t>
-  </si>
-  <si>
-    <t>xyz2</t>
-  </si>
-  <si>
-    <t>mnp2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>abc3</t>
-  </si>
-  <si>
-    <t>xyz3</t>
-  </si>
-  <si>
-    <t>mnp3</t>
-  </si>
-  <si>
-    <t>abc4</t>
-  </si>
-  <si>
-    <t>Dno</t>
-  </si>
-  <si>
-    <t>dnumber</t>
-  </si>
-  <si>
-    <t>Dr_Flag</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>xyz4</t>
-  </si>
-  <si>
-    <t>expr_date</t>
-  </si>
-  <si>
-    <t>sell_price</t>
-  </si>
-  <si>
-    <t>Import_info</t>
-  </si>
-  <si>
-    <t>20/11/2023</t>
-  </si>
-  <si>
-    <t>20/11/2024</t>
-  </si>
-  <si>
-    <t>20/9/2023</t>
-  </si>
-  <si>
-    <t>20/9/2024</t>
-  </si>
-  <si>
-    <t>exam_date</t>
-  </si>
-  <si>
-    <t>next_exam</t>
-  </si>
-  <si>
-    <t>record_id</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>Đột xuất bận-&gt; next day k trùng được</t>
-  </si>
-  <si>
-    <t>15/5/2023</t>
-  </si>
-  <si>
-    <t>16/5/2023</t>
-  </si>
-  <si>
-    <t>20/6/2023</t>
-  </si>
-  <si>
-    <t>Phí khám thôi</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>recovered</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>Incharge</t>
-  </si>
-  <si>
-    <t>Admission_History</t>
-  </si>
-  <si>
-    <t>Record_id</t>
-  </si>
-  <si>
-    <t>OP_phone</t>
-  </si>
-  <si>
-    <t>IP_Phone</t>
-  </si>
-  <si>
-    <t>discharge_date</t>
-  </si>
-  <si>
-    <t>adms_date</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>10-5-2023</t>
-  </si>
-  <si>
-    <t>30-5-2023</t>
-  </si>
-  <si>
-    <t>10-7-2023</t>
-  </si>
-  <si>
-    <t>10-8-2023</t>
-  </si>
-  <si>
-    <t>20-8-2023</t>
-  </si>
-  <si>
-    <t>10-6-2023</t>
-  </si>
-  <si>
-    <t>period_number</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>OP_Flag</t>
-  </si>
-  <si>
-    <t>IP_Flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,8 +631,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -513,35 +828,277 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -557,130 +1114,174 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -694,21 +1295,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>132521</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1010810" y="7040880"/>
-          <a:ext cx="3759310" cy="3089081"/>
+          <a:off x="1010285" y="7040880"/>
+          <a:ext cx="3759835" cy="2913380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -747,21 +1342,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4895023" y="6975283"/>
-          <a:ext cx="1970597" cy="2976437"/>
+          <a:off x="4894580" y="6974840"/>
+          <a:ext cx="1971040" cy="2976880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -800,21 +1389,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="929641" y="1828801"/>
-          <a:ext cx="1424939" cy="1059179"/>
+          <a:off x="1059180" y="3756660"/>
+          <a:ext cx="1600200" cy="1760220"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -853,21 +1436,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>180561</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4617720" y="1889760"/>
-          <a:ext cx="6780474" cy="3548601"/>
+          <a:off x="5006340" y="3817620"/>
+          <a:ext cx="7214235" cy="6184900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -906,21 +1483,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="960120" y="1158240"/>
-          <a:ext cx="6126480" cy="1760220"/>
+          <a:off x="1089660" y="1158240"/>
+          <a:ext cx="6621780" cy="4389120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -959,21 +1530,15 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="960120" y="1821180"/>
-          <a:ext cx="5280660" cy="1935480"/>
+          <a:off x="1089660" y="3749040"/>
+          <a:ext cx="5737860" cy="3169920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1012,21 +1577,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6972300" y="5242560"/>
-          <a:ext cx="632460" cy="2758440"/>
+          <a:off x="6972300" y="6995160"/>
+          <a:ext cx="632460" cy="4686300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1065,21 +1624,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6972300" y="3840480"/>
-          <a:ext cx="594360" cy="2407920"/>
+          <a:off x="7597140" y="7002780"/>
+          <a:ext cx="723900" cy="4686300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1118,21 +1671,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7719060" y="3771900"/>
-          <a:ext cx="594360" cy="2407920"/>
+          <a:off x="8473440" y="6934200"/>
+          <a:ext cx="640080" cy="4686300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1171,21 +1718,15 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3407229" y="7652657"/>
-          <a:ext cx="4506685" cy="838200"/>
+          <a:off x="4881880" y="15243175"/>
+          <a:ext cx="4500245" cy="1719580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1224,21 +1765,15 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>293914</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3352800" y="8534400"/>
-          <a:ext cx="5105401" cy="119743"/>
+          <a:off x="4827270" y="17006570"/>
+          <a:ext cx="5097780" cy="119380"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1277,21 +1812,15 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9357360" y="8816340"/>
-          <a:ext cx="7620" cy="701040"/>
+          <a:off x="9357360" y="15300960"/>
+          <a:ext cx="7620" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1330,21 +1859,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1098368" y="7322820"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="1097915" y="11879580"/>
+          <a:ext cx="109220" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1383,21 +1906,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1893025" y="7268392"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="1892935" y="11824970"/>
+          <a:ext cx="108585" cy="1578610"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1436,21 +1953,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2555966" y="7246620"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="2555875" y="11803380"/>
+          <a:ext cx="108585" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1489,21 +2000,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3208020" y="7246620"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="3208020" y="11803380"/>
+          <a:ext cx="108585" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1542,21 +2047,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>84909</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6761117" y="6400800"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="6760845" y="10081260"/>
+          <a:ext cx="108585" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1595,21 +2094,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7806146" y="7290163"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="7806055" y="11846560"/>
+          <a:ext cx="108585" cy="1578610"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1648,21 +2141,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8556171" y="7333705"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="8555990" y="11890375"/>
+          <a:ext cx="108585" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1701,21 +2188,15 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4963887" y="7772400"/>
-          <a:ext cx="4299856" cy="500743"/>
+          <a:off x="4958080" y="13609955"/>
+          <a:ext cx="4293235" cy="1557020"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1754,21 +2235,15 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4060371" y="7652657"/>
-          <a:ext cx="576943" cy="609600"/>
+          <a:off x="4055745" y="13490575"/>
+          <a:ext cx="575945" cy="1665605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1807,21 +2282,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="982980" y="1264921"/>
-          <a:ext cx="137161" cy="1219199"/>
+          <a:off x="982980" y="1264920"/>
+          <a:ext cx="137160" cy="2446020"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1860,21 +2329,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1188720" y="1356360"/>
-          <a:ext cx="3291840" cy="609601"/>
+          <a:ext cx="3291840" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1913,21 +2376,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1356360" y="1333500"/>
-          <a:ext cx="5311140" cy="2415541"/>
+          <a:ext cx="5311140" cy="2415540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1966,21 +2423,15 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Connector: Elbow 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="87" name="Connector: Elbow 86"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-1554480" y="5791200"/>
-          <a:ext cx="6172200" cy="2453640"/>
+          <a:off x="-1466850" y="5703570"/>
+          <a:ext cx="5996940" cy="2453640"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2018,20 +2469,14 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Straight Arrow Connector 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="297180" y="2125980"/>
+          <a:off x="297180" y="3878580"/>
           <a:ext cx="563880" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2071,21 +2516,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Straight Arrow Connector 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1173480" y="6499860"/>
-          <a:ext cx="617220" cy="601980"/>
+          <a:off x="1173480" y="10180320"/>
+          <a:ext cx="617220" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2124,21 +2563,15 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="104" name="Straight Arrow Connector 103"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6860177" y="7284720"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="6859905" y="11841480"/>
+          <a:ext cx="108585" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2177,21 +2610,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="Straight Arrow Connector 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="107" name="Straight Arrow Connector 106"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1935480" y="6469380"/>
-          <a:ext cx="617220" cy="601980"/>
+          <a:off x="1935480" y="10149840"/>
+          <a:ext cx="617220" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2230,21 +2657,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>62049</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7500257" y="6377940"/>
-          <a:ext cx="108857" cy="702129"/>
+          <a:off x="7499985" y="10058400"/>
+          <a:ext cx="108585" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2283,21 +2704,15 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38382DF6-B016-4ECE-AB17-88B0A95254DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9425940" y="0"/>
-          <a:ext cx="3963785" cy="4197927"/>
+          <a:off x="9479280" y="0"/>
+          <a:ext cx="3992880" cy="5873750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,6 +2752,9 @@
             </a:rPr>
             <a:t>Constraint not show in diagram:</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2392,6 +2810,9 @@
             </a:rPr>
             <a:t>2. When a patient is recovered and his or her last treatment has been confirmed as “recovered” by the doctor, he or she will be discharged from the hospital. As a result, the discharge date must be recorded by the system.</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2465,6 +2886,9 @@
             </a:rPr>
             <a:t> When he/she is in/outpatient, the ERD cannot make specific ID start with IP/OP </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
@@ -2489,6 +2913,9 @@
             </a:rPr>
             <a:t>- Đầu tiên tạo hết các bảng, tạo các pkey constraint, các constraint về format (gender, date). Delete là setnull</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2497,6 +2924,9 @@
             </a:rPr>
             <a:t>- Thêm constraint về ngày cho Employee, DoB &lt; degree year &lt; start date</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2505,6 +2935,9 @@
             </a:rPr>
             <a:t>- Thêm ref cho dr và nurse, constraint về loại trừ dr và nurse</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2519,6 +2952,9 @@
             </a:rPr>
             <a:t> Thêm ref cho dept_ID của employee</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2527,6 +2963,9 @@
             </a:rPr>
             <a:t>- Thêm constraint về deanID cho department, tốt nghiệp hơn 5 năm</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2535,6 +2974,9 @@
             </a:rPr>
             <a:t>- Thêm constraint về speciality === title (insert, update)</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
@@ -2563,21 +3005,15 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11FC451-48AB-4148-AD9E-78965250186B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10043160" y="8869680"/>
-          <a:ext cx="0" cy="685800"/>
+          <a:off x="10043160" y="15354300"/>
+          <a:ext cx="0" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2616,21 +3052,15 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F47667-4878-439C-8AC4-74D3C88E9A8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9841379" y="4471258"/>
-          <a:ext cx="3992881" cy="2150522"/>
+          <a:off x="9841230" y="6223635"/>
+          <a:ext cx="3992880" cy="3202305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2670,6 +3100,9 @@
             </a:rPr>
             <a:t>Tiếp nhận bệnh nhân (kiểm tra trong patient theo sdt). Nếu chưa có thì tạo mới, đồng thời tạo mới trong Op hoặc Ip</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2690,6 +3123,9 @@
             </a:rPr>
             <a:t>và Ip</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
@@ -2737,6 +3173,9 @@
             </a:rPr>
             <a:t>Thêm constraint update result -&gt; cập nhật cho admission history date of discharge</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
@@ -2765,21 +3204,15 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2296D257-5129-4573-B5AE-851A351B7F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12493139" y="8525098"/>
-          <a:ext cx="3992881" cy="3377342"/>
+          <a:off x="12492990" y="8524875"/>
+          <a:ext cx="3992880" cy="3202305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2819,6 +3252,9 @@
             </a:rPr>
             <a:t>đầu tiên là Adminssion_hist (1 bệnh gì đó), rồi đến treatment, đến Treat_med rồi Incharge</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
@@ -2832,6 +3268,9 @@
             </a:rPr>
             <a:t>Tức khi bệnh nhân nhập viện thì tạo 1 cái Admission_hist -&gt; Input: mã bệnh nhân + record tự tăng(dùng node mà chạy). Kiểu như có 1 cái form điền sdt -&gt; redirect tới detail của bệnh nhân đó, gồm các record bệnh án, bên cạnh đó ghi thêm date_adm, diagnos... Tất nhiên là có nút edit và nút thêm</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
@@ -2890,6 +3329,9 @@
             </a:rPr>
             <a:t>Tại 1 thời điểm không thể vừa là IP vừa là OP</a:t>
           </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100" baseline="0">
+            <a:latin typeface="Calibri (Body)"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
@@ -2913,21 +3355,15 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61D6297-426A-4B56-9E1F-F15133EB5327}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1394460" y="10294621"/>
-          <a:ext cx="1203960" cy="1402079"/>
+          <a:off x="1394460" y="10119360"/>
+          <a:ext cx="1203960" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2999,7 +3435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3032,26 +3468,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3084,23 +3503,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3242,1655 +3644,1650 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5CE37F-4A04-41EC-B018-4D24554AD9B6}">
-  <dimension ref="A4:Y90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="25" width="10.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="25" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="14:22">
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="14:22">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" spans="2:22">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="2:22" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+    </row>
+    <row r="7" ht="27.6" spans="2:22">
       <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="K7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
+        <v>18264</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7">
+        <v>43831</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="7">
+        <v>42005</v>
+      </c>
+      <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="L8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7">
+        <v>18264</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43832</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7">
+        <v>42006</v>
+      </c>
+      <c r="K9" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7">
+        <v>18264</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43833</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="7">
+        <v>42007</v>
+      </c>
+      <c r="K10" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
+        <v>18264</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43834</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="7">
+        <v>42008</v>
+      </c>
+      <c r="K11" s="5">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
-        <v>1001</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="L11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7">
         <v>18264</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="14">
-        <v>43831</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="14">
-        <v>42005</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
+        <v>43835</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="7">
+        <v>42009</v>
+      </c>
+      <c r="K12" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="L12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7">
         <v>18264</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="14">
-        <v>43832</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="14">
-        <v>42006</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43836</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="7">
+        <v>43836</v>
+      </c>
+      <c r="K13" s="5">
         <v>2</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
-        <v>1003</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="L13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7">
         <v>18264</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="14">
-        <v>43833</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="14">
-        <v>42007</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43837</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="7">
+        <v>43837</v>
+      </c>
+      <c r="K14" s="5">
         <v>3</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
-        <v>1004</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="L14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7">
         <v>18264</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="14">
-        <v>43834</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="14">
-        <v>42008</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7">
+        <v>43838</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="7">
+        <v>43838</v>
+      </c>
+      <c r="K15" s="5">
         <v>4</v>
       </c>
-      <c r="L11" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
-        <v>1005</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="L15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7">
         <v>18264</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="14">
-        <v>43835</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="14">
-        <v>42009</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
-        <v>1006</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="14">
-        <v>18264</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="14">
-        <v>43836</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="14">
-        <v>43836</v>
-      </c>
-      <c r="K13" s="12">
-        <v>2</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
-        <v>1007</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="14">
-        <v>18264</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="14">
-        <v>43837</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="14">
-        <v>43837</v>
-      </c>
-      <c r="K14" s="12">
-        <v>3</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
-        <v>1008</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="14">
-        <v>18264</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="14">
-        <v>43838</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="14">
-        <v>43838</v>
-      </c>
-      <c r="K15" s="12">
-        <v>4</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
-        <v>1009</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="14">
-        <v>18264</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="14">
+      <c r="F16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="7">
         <v>43839</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="7">
         <v>42013</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
+      <c r="L16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="5">
         <v>1010</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7">
         <v>18264</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>53</v>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="14">
+        <v>41</v>
+      </c>
+      <c r="H17" s="7">
         <v>43840</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="7">
         <v>43840</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>13</v>
+      <c r="L17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" spans="14:22">
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="2:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>14</v>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" ht="27.6" customHeight="1" spans="2:22">
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="18">
+        <v>47</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="12">
         <v>1001</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="12">
         <v>1005</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="18">
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="12">
         <v>1002</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="12">
         <v>1006</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="18">
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="12">
         <v>1003</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="12">
         <v>1007</v>
       </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="18">
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="12">
         <v>1004</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="12">
         <v>1008</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="18">
+    <row r="26" spans="2:2">
+      <c r="B26" s="12">
         <v>1009</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="18">
+    <row r="27" spans="2:2">
+      <c r="B27" s="12">
         <v>1010</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="28.2" customHeight="1" spans="2:7">
       <c r="B30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4">
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4">
       <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4">
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1">
         <v>1003</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4">
       <c r="B34" s="1">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11">
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="27.6" spans="2:13">
+      <c r="B37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="J37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="J38" s="26">
+        <v>1001</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="15"/>
+      <c r="J39" s="26">
+        <v>1002</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="15"/>
+      <c r="J40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
         <v>2</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="J37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="J38" s="28">
-        <v>1001</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" s="12">
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="15"/>
+      <c r="J41" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="5">
         <v>1</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M41" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="34"/>
-      <c r="J39" s="28">
-        <v>1002</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L39" s="12">
+    <row r="42" spans="2:13">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="15"/>
+      <c r="J42" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="5">
         <v>1</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="15"/>
+      <c r="J43" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+      <c r="M43" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="34"/>
-      <c r="J40" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L40" s="12">
+    <row r="44" spans="2:13">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="15"/>
+      <c r="J44" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" s="5">
+        <v>2</v>
+      </c>
+      <c r="M44" s="6">
         <v>1</v>
       </c>
-      <c r="M40" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="34"/>
-      <c r="J41" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L41" s="12">
-        <v>1</v>
-      </c>
-      <c r="M41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="34"/>
-      <c r="J42" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="12">
-        <v>1</v>
-      </c>
-      <c r="M42" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="34"/>
-      <c r="J43" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L43" s="12">
-        <v>2</v>
-      </c>
-      <c r="M43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="34"/>
-      <c r="J44" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="L44" s="12">
-        <v>2</v>
-      </c>
-      <c r="M44" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="10:11">
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="33"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="12"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="27"/>
-    </row>
-    <row r="51" spans="2:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="5"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="51" ht="27.6" spans="2:15">
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N51" s="26" t="s">
-        <v>101</v>
+        <v>71</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" ht="27.6" spans="2:17">
+      <c r="B52" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="30" t="s">
-        <v>114</v>
+        <v>75</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N52" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O52" s="37"/>
-      <c r="P52" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O52" s="32"/>
+      <c r="P52" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
       <c r="B53" s="24" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="25">
         <v>1001</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
-      <c r="L53" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N53" s="25">
+      <c r="L53" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N53" s="34">
         <v>45205</v>
       </c>
-      <c r="O53" s="34"/>
+      <c r="O53" s="15"/>
       <c r="P53" s="1">
         <v>1</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
       <c r="B54" s="24" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="25">
         <v>1002</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
-      <c r="L54" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N54" s="25">
+      <c r="L54" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N54" s="34">
         <v>45206</v>
       </c>
-      <c r="O54" s="34"/>
+      <c r="O54" s="15"/>
       <c r="P54" s="1">
         <v>2</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
       <c r="B55" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="25">
         <v>1001</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K55" s="1">
         <v>2</v>
       </c>
-      <c r="L55" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O55" s="34"/>
+      <c r="L55" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O55" s="15"/>
       <c r="Q55" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
       <c r="J56" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
       </c>
-      <c r="L56" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="O56" s="34"/>
+      <c r="L56" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O56" s="15"/>
       <c r="Q56" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" ht="55.2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" ht="55.2" spans="2:10">
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" ht="27.6" spans="2:16">
+      <c r="B58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="P58" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="27">
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" s="20">
         <v>1001</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="12">
+      <c r="C59" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="5">
         <v>1</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="7">
         <v>45204</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="5">
         <v>5</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K59" s="1">
         <v>1</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="6">
         <v>1</v>
       </c>
-      <c r="M59" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N59" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>105</v>
+      <c r="M59" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N59" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="P59" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B60" s="27">
+    <row r="60" spans="2:16">
+      <c r="B60" s="20">
         <v>1001</v>
       </c>
-      <c r="C60" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="12">
+      <c r="C60" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="5">
         <v>1</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="12">
+      <c r="E60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="5">
         <v>5</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K60" s="1">
         <v>1</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="6">
         <v>1</v>
       </c>
-      <c r="M60" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="N60" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="O60" s="13" t="s">
-        <v>105</v>
+      <c r="M60" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="P60" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B61" s="27">
+    <row r="61" spans="2:16">
+      <c r="B61" s="20">
         <v>1002</v>
       </c>
-      <c r="C61" s="28" t="s">
-        <v>94</v>
+      <c r="C61" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>98</v>
+      <c r="E61" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="H61" s="1">
         <v>5</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="6">
         <v>2</v>
       </c>
-      <c r="M61" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="N61" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="O61" s="13" t="s">
-        <v>106</v>
+      <c r="M61" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="N61" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="P61" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="27">
+    <row r="62" spans="2:16">
+      <c r="B62" s="20">
         <v>1001</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>103</v>
+      <c r="C62" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="7">
         <v>45237</v>
       </c>
       <c r="H62" s="1">
         <v>5</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="6">
         <v>2</v>
       </c>
-      <c r="M62" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="N62" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>106</v>
+      <c r="M62" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="N62" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="P62" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:16">
       <c r="J63" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="35">
         <v>1</v>
       </c>
-      <c r="M63" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N63" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="O63" s="13" t="s">
-        <v>105</v>
+      <c r="M63" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N63" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="P63" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:16">
       <c r="J64" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="35">
         <v>1</v>
       </c>
-      <c r="M64" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="O64" s="13" t="s">
-        <v>105</v>
+      <c r="M64" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="N64" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="P64" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" ht="27.6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" ht="27.6" spans="2:13">
       <c r="B67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>113</v>
+        <v>45</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="30" t="s">
-        <v>114</v>
+        <v>75</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B68" s="27">
+        <v>75</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="20">
         <v>1001</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="C68" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="5">
         <v>1</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="7">
         <v>45204</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>54</v>
+      <c r="F68" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="6">
         <v>1</v>
       </c>
-      <c r="M68" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B69" s="27">
+      <c r="M68" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="20">
         <v>1001</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="12">
+      <c r="C69" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="5">
         <v>1</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="7">
         <v>45204</v>
       </c>
-      <c r="F69" s="23" t="s">
-        <v>56</v>
+      <c r="F69" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K69" s="1">
         <v>1</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L69" s="6">
         <v>1</v>
       </c>
-      <c r="M69" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B70" s="27">
+      <c r="M69" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="20">
         <v>1001</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="12">
+      <c r="C70" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="5">
         <v>1</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>56</v>
+      <c r="E70" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K70" s="1">
         <v>1</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B71" s="27">
+      <c r="M70" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="20">
         <v>1002</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>94</v>
+      <c r="C71" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>98</v>
+      <c r="E71" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="35">
         <v>1</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B72" s="27">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="20">
         <v>1001</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>103</v>
+      <c r="C72" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="7">
         <v>45237</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K72" s="1">
         <v>2</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="35">
         <v>1</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="10:13">
       <c r="J73" s="24" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="35">
         <v>1</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
       <c r="J74" s="24"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="E75" s="14"/>
+      <c r="L74" s="35"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="20"/>
+      <c r="C75" s="26"/>
+      <c r="E75" s="7"/>
       <c r="G75" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="K75" s="2"/>
       <c r="M75" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="2:17" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="G76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>23</v>
+    <row r="76" ht="27.6" spans="7:17">
+      <c r="G76" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>26</v>
+        <v>115</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="7:17">
       <c r="G77" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" s="22" t="s">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="I77" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="K77" s="2">
         <v>5</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N77" s="1">
         <v>9001</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="38">
         <v>44927</v>
       </c>
       <c r="P77" s="1">
@@ -4900,26 +5297,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:17">
       <c r="G78" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="I78" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="K78" s="2">
         <v>6</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N78" s="1">
         <v>9002</v>
       </c>
-      <c r="O78" s="15">
+      <c r="O78" s="38">
         <v>44927</v>
       </c>
       <c r="P78" s="1">
@@ -4929,26 +5326,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:17">
       <c r="G79" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="I79" s="37" t="s">
+        <v>123</v>
       </c>
       <c r="K79" s="2">
         <v>10</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N79" s="1">
         <v>9001</v>
       </c>
-      <c r="O79" s="15">
+      <c r="O79" s="38">
         <v>44928</v>
       </c>
       <c r="P79" s="1">
@@ -4958,26 +5355,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:17">
       <c r="G80" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>90</v>
+        <v>19</v>
+      </c>
+      <c r="I80" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="K80" s="2">
         <v>9</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="N80" s="1">
         <v>9001</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="38">
         <v>44929</v>
       </c>
       <c r="P80" s="1">
@@ -4987,15 +5384,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="11:17">
       <c r="K81" s="2"/>
       <c r="M81" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="N81" s="1">
         <v>9002</v>
       </c>
-      <c r="O81" s="15">
+      <c r="O81" s="38">
         <v>44930</v>
       </c>
       <c r="P81" s="1">
@@ -5005,15 +5402,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="11:17">
       <c r="K82" s="2"/>
       <c r="M82" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="N82" s="1">
         <v>9002</v>
       </c>
-      <c r="O82" s="15">
+      <c r="O82" s="38">
         <v>44931</v>
       </c>
       <c r="P82" s="1">
@@ -5023,134 +5420,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="11:11">
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:13">
       <c r="G84" s="1" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="K84" s="2"/>
       <c r="M84" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="7:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" ht="28.2" customHeight="1" spans="7:17">
       <c r="G85" s="3" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>26</v>
+        <v>127</v>
+      </c>
+      <c r="M85" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" s="11"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-    </row>
-    <row r="86" spans="7:17" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="7:14">
       <c r="G86" s="1">
         <v>9001</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J86" s="1">
         <v>9001</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N86" s="1">
         <v>9001</v>
       </c>
     </row>
-    <row r="87" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:14">
       <c r="G87" s="1">
         <v>9002</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J87" s="1">
         <v>9002</v>
       </c>
-      <c r="K87" s="8"/>
+      <c r="K87" s="39"/>
       <c r="M87" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N87" s="1">
         <v>9002</v>
       </c>
     </row>
-    <row r="88" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:14">
       <c r="G88" s="1">
         <v>9003</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J88" s="1">
         <v>9003</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="N88" s="1">
         <v>9001</v>
       </c>
     </row>
-    <row r="89" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:14">
       <c r="G89" s="1">
         <v>9004</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J89" s="1">
         <v>9004</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="N89" s="1">
         <v>9002</v>
       </c>
     </row>
-    <row r="90" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:14">
       <c r="M90" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="N90" s="1">
         <v>9002</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>